--- a/Payroll Analysis/ComparedResults/CCCTA_Comparison.xlsx
+++ b/Payroll Analysis/ComparedResults/CCCTA_Comparison.xlsx
@@ -11,6 +11,7 @@
     <sheet name="OperatorChanges" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="TripsComparison" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="HoursComparison" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="LeaseComparison" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -670,7 +671,7 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>SILVA PAUL</t>
+          <t>SILVA, PAUL</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -687,7 +688,7 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>SILVA, PAUL</t>
+          <t>SILVA PAUL</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -1263,4 +1264,275 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="38" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>PARTNER</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>PREVIOUS</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>LATEST</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>CHANGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>AARON TRANSPORTATION</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>DIAMOND HILL TRANSPORTATION LLC</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Fowler Senior Transit LLC</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>GET CARE TRANSIT LLC</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>HIGHER-SELF LLC</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>430</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>430</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>HUGO FAMILY TRANSPORTATION</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>MADE EAZY LLC</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>430</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>430</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>MONAI&amp;SON'S LLC</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>NORTHCAL TRANSPORTATION LLC</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>QUICK RIDES CA</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>REM Solutions LLC</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>430</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>430</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>SYNERGY MEDICAL TRANSPORTATION LLC</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>1020</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>1020</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Transit LTM LLC</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Payroll Analysis/ComparedResults/CCCTA_Comparison.xlsx
+++ b/Payroll Analysis/ComparedResults/CCCTA_Comparison.xlsx
@@ -37,10 +37,10 @@
       <color rgb="00FFFFFF"/>
     </font>
     <font>
-      <color rgb="009C0006"/>
+      <color rgb="00006100"/>
     </font>
     <font>
-      <color rgb="00006100"/>
+      <color rgb="009C0006"/>
     </font>
   </fonts>
   <fills count="5">
@@ -58,14 +58,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFC7CE"/>
-        <bgColor rgb="00FFC7CE"/>
+        <fgColor rgb="00C6EFCE"/>
+        <bgColor rgb="00C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C6EFCE"/>
-        <bgColor rgb="00C6EFCE"/>
+        <fgColor rgb="00FFC7CE"/>
+        <bgColor rgb="00FFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -472,9 +472,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="11" customWidth="1" min="1" max="1"/>
-    <col width="19" customWidth="1" min="2" max="2"/>
-    <col width="19" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="19" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
@@ -512,17 +512,17 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>1852</v>
+        <v>1548</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>1802</v>
+        <v>1624</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>-50</v>
+        <v>76</v>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>Decreased</t>
+          <t>Increased</t>
         </is>
       </c>
     </row>
@@ -533,17 +533,17 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>2019.062</v>
+        <v>1872.29</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>1992.68</v>
+        <v>1956.566</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>-26.38200000000006</v>
+        <v>84.27599999999984</v>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>Decreased</t>
+          <t>Increased</t>
         </is>
       </c>
     </row>
@@ -554,17 +554,17 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>Increased</t>
+          <t>Decreased</t>
         </is>
       </c>
     </row>
@@ -596,17 +596,17 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>64687.62590753134</v>
+        <v>57784.88036</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>63732.79836270678</v>
+        <v>60444.40506</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>-954.8275448245549</v>
+        <v>2659.524700000002</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>Decreased</t>
+          <t>Increased</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -629,93 +629,59 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="38" customWidth="1" min="2" max="2"/>
-    <col width="9" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
+    <col width="38" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
+          <t>Change</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
           <t>Operator Name</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Partner</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Change</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>BANKS, LENARD</t>
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>Removed</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
+          <t>MATUECCI, MATT</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
           <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>SILVA, PAUL</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>SILVA PAUL</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>GIBBS, SAMUEL</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>Removed</t>
         </is>
       </c>
     </row>
@@ -773,13 +739,13 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>83</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>-5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -789,13 +755,13 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>2</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="4">
@@ -805,13 +771,13 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>451</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>-27</v>
+        <v>430</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-46</v>
       </c>
     </row>
     <row r="5">
@@ -821,13 +787,13 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>18</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="6">
@@ -837,13 +803,13 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>-7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -853,13 +819,13 @@
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>-11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -869,13 +835,13 @@
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>106</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>16</v>
+        <v>92</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="9">
@@ -888,10 +854,10 @@
         <v>55</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>84</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>29</v>
+        <v>67</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -901,13 +867,13 @@
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>92</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>-9</v>
+        <v>85</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -917,13 +883,13 @@
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>105</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>-8</v>
+        <v>64</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-9</v>
       </c>
     </row>
     <row r="12">
@@ -933,13 +899,13 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>120</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>-19</v>
+        <v>109</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-5</v>
       </c>
     </row>
     <row r="13">
@@ -949,13 +915,13 @@
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>86</v>
-      </c>
-      <c r="D13" s="4" t="n">
-        <v>-30</v>
+        <v>61</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-6</v>
       </c>
     </row>
     <row r="14">
@@ -965,13 +931,13 @@
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>210</v>
+        <v>274</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>-1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
@@ -981,12 +947,12 @@
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>90</v>
-      </c>
-      <c r="D15" s="5" t="n">
+        <v>68</v>
+      </c>
+      <c r="D15" s="4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1011,8 +977,8 @@
   <cols>
     <col width="38" customWidth="1" min="1" max="1"/>
     <col width="19" customWidth="1" min="2" max="2"/>
-    <col width="9" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="19" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1044,13 +1010,13 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>90.19</v>
+        <v>70.64100000000001</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>102.901</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>12.711</v>
+        <v>89.92099999999999</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>19.27999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -1060,13 +1026,13 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>91.634</v>
+        <v>93.381</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>98.834</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>7.200000000000003</v>
+        <v>93.901</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0.519999999999996</v>
       </c>
     </row>
     <row r="4">
@@ -1076,13 +1042,13 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>521.8149999999999</v>
+        <v>562.248</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>513.572</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>-8.242999999999938</v>
+        <v>510.513</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-51.73500000000007</v>
       </c>
     </row>
     <row r="5">
@@ -1092,13 +1058,13 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>106.428</v>
+        <v>88.977</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>93.691</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>-12.73699999999999</v>
+        <v>78.367</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-10.61</v>
       </c>
     </row>
     <row r="6">
@@ -1108,13 +1074,13 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>119.749</v>
+        <v>87.73400000000001</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>119.456</v>
+        <v>108.93</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>-0.2929999999999922</v>
+        <v>21.19599999999998</v>
       </c>
     </row>
     <row r="7">
@@ -1124,13 +1090,13 @@
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>108.054</v>
+        <v>94.44800000000001</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>112.497</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>4.442999999999998</v>
+        <v>95.804</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>1.355999999999995</v>
       </c>
     </row>
     <row r="8">
@@ -1140,13 +1106,13 @@
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>82.015</v>
+        <v>19.51</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>92.7</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>10.685</v>
+        <v>87.096</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>67.58600000000001</v>
       </c>
     </row>
     <row r="9">
@@ -1156,13 +1122,13 @@
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>62.386</v>
+        <v>83.343</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>85.931</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>23.54499999999999</v>
+        <v>86.126</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>2.783000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -1172,13 +1138,13 @@
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>132.646</v>
+        <v>94.554</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>99.629</v>
+        <v>96.14500000000001</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>-33.01699999999998</v>
+        <v>1.591000000000008</v>
       </c>
     </row>
     <row r="11">
@@ -1188,13 +1154,13 @@
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>91.251</v>
+        <v>79.52600000000001</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>98.634</v>
+        <v>67.547</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.382999999999996</v>
+        <v>-11.97900000000001</v>
       </c>
     </row>
     <row r="12">
@@ -1204,13 +1170,13 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>174.113</v>
+        <v>148.593</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>159.764</v>
+        <v>156.282</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>-14.34899999999999</v>
+        <v>7.689000000000021</v>
       </c>
     </row>
     <row r="13">
@@ -1220,13 +1186,13 @@
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>107.912</v>
+        <v>75.423</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>101.404</v>
-      </c>
-      <c r="D13" s="4" t="n">
-        <v>-6.507999999999996</v>
+        <v>65.369</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-10.054</v>
       </c>
     </row>
     <row r="14">
@@ -1236,13 +1202,13 @@
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>230.468</v>
+        <v>286.168</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>213.667</v>
+        <v>331.648</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>-16.80100000000002</v>
+        <v>45.47999999999996</v>
       </c>
     </row>
     <row r="15">
@@ -1252,13 +1218,13 @@
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>100.401</v>
+        <v>87.744</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>100</v>
+        <v>88.917</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>-0.4009999999999962</v>
+        <v>1.173000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1315,10 +1281,10 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>590</v>
+        <v>463.58</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>590</v>
+        <v>463.58</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>0</v>
@@ -1411,10 +1377,10 @@
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>590</v>
+        <v>295</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>590</v>
+        <v>295</v>
       </c>
       <c r="D8" s="3" t="n">
         <v>0</v>
@@ -1507,10 +1473,10 @@
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>1020</v>
+        <v>1450</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>1020</v>
+        <v>1450</v>
       </c>
       <c r="D14" s="3" t="n">
         <v>0</v>

--- a/Payroll Analysis/ComparedResults/CCCTA_Comparison.xlsx
+++ b/Payroll Analysis/ComparedResults/CCCTA_Comparison.xlsx
@@ -37,10 +37,10 @@
       <color rgb="00FFFFFF"/>
     </font>
     <font>
-      <color rgb="00006100"/>
+      <color rgb="009C0006"/>
     </font>
     <font>
-      <color rgb="009C0006"/>
+      <color rgb="00006100"/>
     </font>
   </fonts>
   <fills count="5">
@@ -58,14 +58,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C6EFCE"/>
-        <bgColor rgb="00C6EFCE"/>
+        <fgColor rgb="00FFC7CE"/>
+        <bgColor rgb="00FFC7CE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFC7CE"/>
-        <bgColor rgb="00FFC7CE"/>
+        <fgColor rgb="00C6EFCE"/>
+        <bgColor rgb="00C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -472,9 +472,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="11" customWidth="1" min="1" max="1"/>
-    <col width="13" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="19" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
@@ -512,17 +512,17 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>1548</v>
+        <v>1925</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>1624</v>
+        <v>1882</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>76</v>
+        <v>-43</v>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>Increased</t>
+          <t>Decreased</t>
         </is>
       </c>
     </row>
@@ -533,17 +533,17 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>1872.29</v>
+        <v>2165.171</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>1956.566</v>
+        <v>2056.047</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>84.27599999999984</v>
+        <v>-109.1240000000003</v>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>Increased</t>
+          <t>Decreased</t>
         </is>
       </c>
     </row>
@@ -554,15 +554,15 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>-2</v>
-      </c>
-      <c r="E4" s="5" t="inlineStr">
+        <v>-3</v>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>Decreased</t>
         </is>
@@ -596,17 +596,17 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>57784.88036</v>
+        <v>69855.6230393421</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>60444.40506</v>
+        <v>66719.0841740351</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>2659.524700000002</v>
+        <v>-3136.538865306997</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>Increased</t>
+          <t>Decreased</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -629,59 +629,110 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="9" customWidth="1" min="1" max="1"/>
-    <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="38" customWidth="1" min="3" max="3"/>
+    <col width="19" customWidth="1" min="1" max="1"/>
+    <col width="38" customWidth="1" min="2" max="2"/>
+    <col width="9" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
+          <t>Operator Name</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Partner</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
           <t>Change</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Operator Name</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Partner</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>SALGUERO, JORGE</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>JORGE TRANSPORTATION</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>Added</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>COLEMAN, SHAWN</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>TRULY TRANSPORT LLC</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>MATUECCI, MATT</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>SILVA, PAUL</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>SILVA, PAUL</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>BROWN, JAMES</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>TRULY TRANSPORT LLC</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>MARSHALL, WILLIAM</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Removed</t>
         </is>
       </c>
     </row>
@@ -696,7 +747,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -739,13 +790,13 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>16</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="3">
@@ -755,13 +806,13 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>-9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -771,13 +822,13 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>476</v>
+        <v>535</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>430</v>
+        <v>573</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
@@ -787,13 +838,13 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>62</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>-14</v>
+        <v>73</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>-5</v>
       </c>
     </row>
     <row r="6">
@@ -803,13 +854,13 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>20</v>
+        <v>-53</v>
       </c>
     </row>
     <row r="7">
@@ -819,13 +870,13 @@
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>84</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>4</v>
+        <v>81</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -835,125 +886,157 @@
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>69</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>MADE EAZY LLC</t>
+          <t>JORGE TRANSPORTATION</t>
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>67</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>MONAI&amp;SON'S LLC</t>
+          <t>MADE EAZY LLC</t>
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>85</v>
-      </c>
-      <c r="D10" s="3" t="n">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>-11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>NORTHCAL TRANSPORTATION LLC</t>
+          <t>MONAI&amp;SON'S LLC</t>
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>64</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>-9</v>
+        <v>118</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>-8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>QUICK RIDES CA</t>
+          <t>NORTHCAL TRANSPORTATION LLC</t>
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>109</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>-5</v>
+        <v>104</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>-13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>REM SOLUTIONS LLC</t>
+          <t>QUICK RIDES CA</t>
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>-6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>SYNERGY MEDICAL TRANSPORTATION LLC</t>
+          <t>REM SOLUTIONS LLC</t>
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>232</v>
+        <v>75</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>274</v>
+        <v>65</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>42</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
+          <t>SYNERGY MEDICAL TRANSPORTATION LLC</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>185</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>218</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
           <t>TRANSIT LTM LLC</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
-        <v>66</v>
-      </c>
-      <c r="C15" s="3" t="n">
-        <v>68</v>
-      </c>
-      <c r="D15" s="4" t="n">
-        <v>2</v>
+      <c r="B16" s="3" t="n">
+        <v>79</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>72</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>TRULY TRANSPORT LLC</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>64</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>-30</v>
       </c>
     </row>
   </sheetData>
@@ -967,278 +1050,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="38" customWidth="1" min="1" max="1"/>
-    <col width="19" customWidth="1" min="2" max="2"/>
-    <col width="19" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>PARTNER</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>PREVIOUS</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>LATEST</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>CHANGE</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>AARON TRANSPORTATION</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="n">
-        <v>70.64100000000001</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>89.92099999999999</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>19.27999999999999</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>DIAMOND HILL TRANSPORTATION LLC</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>93.381</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>93.901</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>0.519999999999996</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>562.248</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>510.513</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>-51.73500000000007</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>FOWLER SENIOR TRANSIT LLC</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>88.977</v>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>78.367</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>-10.61</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>GET CARE TRANSIT LLC</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="n">
-        <v>87.73400000000001</v>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>108.93</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>21.19599999999998</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>HIGHER-SELF LLC</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="n">
-        <v>94.44800000000001</v>
-      </c>
-      <c r="C7" s="3" t="n">
-        <v>95.804</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>1.355999999999995</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>HUGO FAMILY TRANSPORTATION</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="n">
-        <v>19.51</v>
-      </c>
-      <c r="C8" s="3" t="n">
-        <v>87.096</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>67.58600000000001</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>MADE EAZY LLC</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="n">
-        <v>83.343</v>
-      </c>
-      <c r="C9" s="3" t="n">
-        <v>86.126</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>2.783000000000001</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>MONAI&amp;SON'S LLC</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>94.554</v>
-      </c>
-      <c r="C10" s="3" t="n">
-        <v>96.14500000000001</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>1.591000000000008</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>NORTHCAL TRANSPORTATION LLC</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="n">
-        <v>79.52600000000001</v>
-      </c>
-      <c r="C11" s="3" t="n">
-        <v>67.547</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>-11.97900000000001</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>QUICK RIDES CA</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="n">
-        <v>148.593</v>
-      </c>
-      <c r="C12" s="3" t="n">
-        <v>156.282</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>7.689000000000021</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>REM SOLUTIONS LLC</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="n">
-        <v>75.423</v>
-      </c>
-      <c r="C13" s="3" t="n">
-        <v>65.369</v>
-      </c>
-      <c r="D13" s="5" t="n">
-        <v>-10.054</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="inlineStr">
-        <is>
-          <t>SYNERGY MEDICAL TRANSPORTATION LLC</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="n">
-        <v>286.168</v>
-      </c>
-      <c r="C14" s="3" t="n">
-        <v>331.648</v>
-      </c>
-      <c r="D14" s="4" t="n">
-        <v>45.47999999999996</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>TRANSIT LTM LLC</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="n">
-        <v>87.744</v>
-      </c>
-      <c r="C15" s="3" t="n">
-        <v>88.917</v>
-      </c>
-      <c r="D15" s="4" t="n">
-        <v>1.173000000000002</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1281,13 +1093,13 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>463.58</v>
+        <v>104.02</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>463.58</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>0</v>
+        <v>104.21</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="3">
@@ -1297,13 +1109,13 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>590</v>
+        <v>102.24</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>590</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>0</v>
+        <v>100.59</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>-1.65</v>
       </c>
     </row>
     <row r="4">
@@ -1313,29 +1125,29 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>0</v>
+        <v>565.67</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="n">
-        <v>0</v>
+        <v>603.55</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>37.88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Fowler Senior Transit LLC</t>
+          <t>FOWLER SENIOR TRANSIT LLC</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>590</v>
+        <v>84.37</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>590</v>
-      </c>
-      <c r="D5" s="3" t="n">
-        <v>0</v>
+        <v>77.37</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>-7</v>
       </c>
     </row>
     <row r="6">
@@ -1345,13 +1157,13 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>0</v>
+        <v>108.65</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>0</v>
+        <v>54.47</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>-54.18</v>
       </c>
     </row>
     <row r="7">
@@ -1361,6 +1173,309 @@
         </is>
       </c>
       <c r="B7" s="3" t="n">
+        <v>116.87</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>110.45</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>-6.42</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>HUGO FAMILY TRANSPORTATION</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>94.02</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>82.34999999999999</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>-11.67</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>JORGE TRANSPORTATION</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>MADE EAZY LLC</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>89.87</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>82.94</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>-6.93</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>MONAI&amp;SON'S LLC</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>135.82</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>127.25</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>-8.57</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>NORTHCAL TRANSPORTATION LLC</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>100.28</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>QUICK RIDES CA</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>162.46</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>170.44</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>7.98</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>REM SOLUTIONS LLC</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>87.66</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>64.68000000000001</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>-22.98</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>SYNERGY MEDICAL TRANSPORTATION LLC</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>221.13</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>228.91</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>7.78</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>TRANSIT LTM LLC</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>95.86</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>95.61</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>TRULY TRANSPORT LLC</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>96.23</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>48.65</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>-47.58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="38" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>PARTNER</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>PREVIOUS</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>LATEST</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>CHANGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>AARON TRANSPORTATION</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>DIAMOND HILL TRANSPORTATION LLC</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Fowler Senior Transit LLC</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>GET CARE TRANSIT LLC</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>HIGHER-SELF LLC</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
         <v>430</v>
       </c>
       <c r="C7" s="3" t="n">
@@ -1377,10 +1492,10 @@
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>295</v>
+        <v>590</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>295</v>
+        <v>590</v>
       </c>
       <c r="D8" s="3" t="n">
         <v>0</v>
@@ -1473,10 +1588,10 @@
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>1450</v>
+        <v>1020</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>1450</v>
+        <v>1020</v>
       </c>
       <c r="D14" s="3" t="n">
         <v>0</v>
@@ -1485,16 +1600,32 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
+          <t>TRULY TRANSPORT LLC</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
           <t>Transit LTM LLC</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
-        <v>590</v>
-      </c>
-      <c r="C15" s="3" t="n">
-        <v>590</v>
-      </c>
-      <c r="D15" s="3" t="n">
+      <c r="B16" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D16" s="3" t="n">
         <v>0</v>
       </c>
     </row>
